--- a/data_craw/quarter/income_statement_quarter/stb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/stb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166836000000</v>
+        <v>366072000000</v>
       </c>
       <c r="C4" t="n">
-        <v>582035000000</v>
+        <v>601190000000</v>
       </c>
       <c r="D4" t="n">
-        <v>82415000000</v>
+        <v>84326000000</v>
       </c>
       <c r="E4" t="n">
-        <v>131546000000</v>
+        <v>499444000000</v>
       </c>
       <c r="F4" t="n">
-        <v>366072000000</v>
+        <v>148566000000</v>
       </c>
       <c r="G4" t="n">
-        <v>601190000000</v>
+        <v>132862000000</v>
       </c>
       <c r="H4" t="n">
-        <v>84326000000</v>
+        <v>563972000000</v>
       </c>
       <c r="I4" t="n">
-        <v>499444000000</v>
+        <v>1559504000000</v>
       </c>
       <c r="J4" t="n">
-        <v>148566000000</v>
+        <v>66966000000</v>
       </c>
       <c r="K4" t="n">
-        <v>132862000000</v>
+        <v>683761000000</v>
       </c>
       <c r="L4" t="n">
-        <v>563972000000</v>
+        <v>50411000000</v>
       </c>
       <c r="M4" t="n">
-        <v>1559504000000</v>
+        <v>84141000000</v>
       </c>
       <c r="N4" t="n">
-        <v>66966000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>683761000000</v>
-      </c>
+        <v>45599000000</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>50411000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>84141000000</v>
-      </c>
+        <v>69605000000</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +624,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52266000000</v>
+        <v>7872000000</v>
       </c>
       <c r="C5" t="n">
-        <v>5652000000</v>
+        <v>16968000000</v>
       </c>
       <c r="D5" t="n">
-        <v>11391000000</v>
+        <v>26309000000</v>
       </c>
       <c r="E5" t="n">
-        <v>21260000000</v>
+        <v>24362000000</v>
       </c>
       <c r="F5" t="n">
-        <v>7872000000</v>
+        <v>109440000000</v>
       </c>
       <c r="G5" t="n">
-        <v>16968000000</v>
+        <v>247981000000</v>
       </c>
       <c r="H5" t="n">
-        <v>26309000000</v>
+        <v>18393000000</v>
       </c>
       <c r="I5" t="n">
-        <v>24362000000</v>
+        <v>19714000000</v>
       </c>
       <c r="J5" t="n">
-        <v>109440000000</v>
+        <v>26071000000</v>
       </c>
       <c r="K5" t="n">
-        <v>247981000000</v>
+        <v>64576000000</v>
       </c>
       <c r="L5" t="n">
-        <v>18393000000</v>
+        <v>21152000000</v>
       </c>
       <c r="M5" t="n">
-        <v>19714000000</v>
+        <v>18186000000</v>
       </c>
       <c r="N5" t="n">
-        <v>26071000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>64576000000</v>
-      </c>
+        <v>15573000000</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>21152000000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>18186000000</v>
-      </c>
+        <v>53311000000</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -696,7 +688,9 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>542818000000</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -706,53 +700,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>771869000000</v>
+        <v>716260000000</v>
       </c>
       <c r="C7" t="n">
-        <v>531568000000</v>
+        <v>836610000000</v>
       </c>
       <c r="D7" t="n">
-        <v>785741000000</v>
+        <v>801062000000</v>
       </c>
       <c r="E7" t="n">
-        <v>343370000000</v>
+        <v>1112839000000</v>
       </c>
       <c r="F7" t="n">
-        <v>716260000000</v>
+        <v>639728000000</v>
       </c>
       <c r="G7" t="n">
-        <v>836610000000</v>
+        <v>857867000000</v>
       </c>
       <c r="H7" t="n">
-        <v>801062000000</v>
+        <v>1274076000000</v>
       </c>
       <c r="I7" t="n">
-        <v>1112839000000</v>
+        <v>803989000000</v>
       </c>
       <c r="J7" t="n">
-        <v>639728000000</v>
+        <v>1211607000000</v>
       </c>
       <c r="K7" t="n">
-        <v>857867000000</v>
+        <v>1751123000000</v>
       </c>
       <c r="L7" t="n">
-        <v>1274076000000</v>
+        <v>1899957000000</v>
       </c>
       <c r="M7" t="n">
-        <v>803989000000</v>
+        <v>1925126000000</v>
       </c>
       <c r="N7" t="n">
-        <v>1211607000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1751123000000</v>
-      </c>
+        <v>1634592000000</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>1899957000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1925126000000</v>
-      </c>
+        <v>2111405000000</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -820,7 +810,9 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>6874794000000</v>
+      </c>
       <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -866,7 +858,9 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>2111405000000</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
